--- a/Aplikasi PSIA.xlsx
+++ b/Aplikasi PSIA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/36e0d6bbf3e7b9f7/Dokumen/Collage/Semester 6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="323" documentId="8_{16C721E7-5D32-400A-9975-6FF3697C8231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{087B632D-E591-4F8D-BC11-6F1869E3027C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343FB35A-9918-4A19-9C43-50FBC46B92E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10710" yWindow="0" windowWidth="10980" windowHeight="13770" activeTab="1" xr2:uid="{7BFDEB18-AF35-4EE3-A973-954FAC0998B3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7BFDEB18-AF35-4EE3-A973-954FAC0998B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Perhitungan Gaji" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -51,9 +40,6 @@
     <t>Potongan</t>
   </si>
   <si>
-    <t>Pajak</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -292,6 +278,9 @@
   </si>
   <si>
     <t>Manajer Keuangan</t>
+  </si>
+  <si>
+    <t>PPH</t>
   </si>
 </sst>
 </file>
@@ -526,7 +515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -552,51 +541,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -604,12 +551,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -618,65 +559,106 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Koma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1015,74 +997,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08F13AF-7A20-4C0A-AB18-401BA59FF1AF}">
   <dimension ref="A3:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="13" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="39"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="42"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="D5" s="4">
         <v>5000000</v>
@@ -1105,15 +1087,15 @@
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="4">
         <v>7000000</v>
@@ -1136,16 +1118,16 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3" t="str">
         <f>A15</f>
         <v>K/1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="4">
         <v>6000000</v>
@@ -1159,7 +1141,7 @@
         <v>300000</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" ref="G6:G7" si="1">((((D7-E7-F7)*12)-VLOOKUP(B7,$A$10:$B$21,2,FALSE))*$E$11)/12</f>
+        <f t="shared" ref="G7" si="1">((((D7-E7-F7)*12)-VLOOKUP(B7,$A$10:$B$21,2,FALSE))*$E$11)/12</f>
         <v>58500</v>
       </c>
       <c r="H7" s="8">
@@ -1168,28 +1150,28 @@
       </c>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="10">
         <v>54000000</v>
@@ -1201,9 +1183,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="10">
         <v>58500000</v>
@@ -1215,9 +1197,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="10">
         <v>63000000</v>
@@ -1229,97 +1211,97 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="10">
         <v>67500000</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="12">
         <v>0.35</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="10">
         <v>58500000</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="10">
         <v>63000000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="10">
         <v>67500000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="10">
         <v>72000000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="10">
         <v>112500000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="10">
         <v>117000000</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="10">
         <v>121500000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="10">
         <v>126000000</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
     </row>
@@ -1343,695 +1325,628 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9961954E-CF13-4696-9F5B-E695143FB232}">
   <dimension ref="B1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView zoomScale="97" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="17" customWidth="1"/>
-    <col min="2" max="2" width="20.90625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.7265625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="6.1796875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="5" style="17" customWidth="1"/>
-    <col min="8" max="8" width="18.36328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" style="17" customWidth="1"/>
-    <col min="11" max="11" width="28.1796875" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13" style="17" customWidth="1"/>
-    <col min="14" max="14" width="13.90625" style="17" customWidth="1"/>
-    <col min="15" max="15" width="12.6328125" style="17" customWidth="1"/>
-    <col min="16" max="16" width="12.54296875" style="17" customWidth="1"/>
-    <col min="17" max="17" width="13.7265625" style="17" customWidth="1"/>
-    <col min="18" max="18" width="4.1796875" style="17" customWidth="1"/>
-    <col min="19" max="19" width="13.90625" style="17" customWidth="1"/>
-    <col min="20" max="20" width="3.26953125" style="17" customWidth="1"/>
-    <col min="21" max="21" width="13.1796875" style="17" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="15.90625" style="17" customWidth="1"/>
-    <col min="24" max="24" width="3.1796875" style="17" customWidth="1"/>
-    <col min="25" max="16384" width="8.7265625" style="17"/>
+    <col min="1" max="1" width="6" style="13" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.7109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="5" style="13" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="13" customWidth="1"/>
+    <col min="11" max="11" width="28.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13" style="13" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="13" customWidth="1"/>
+    <col min="15" max="16" width="12.5703125" style="13" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" style="13" customWidth="1"/>
+    <col min="18" max="18" width="4.140625" style="13" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" style="13" customWidth="1"/>
+    <col min="20" max="20" width="3.28515625" style="13" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="15.85546875" style="13" customWidth="1"/>
+    <col min="24" max="24" width="3.140625" style="13" customWidth="1"/>
+    <col min="25" max="16384" width="8.7109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B1" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="G1" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="17"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B3" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="G1" s="30" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="G3" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="49"/>
+      <c r="O3" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="P3" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="38"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" s="46"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="44" t="s">
         <v>69</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="42"/>
-    </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="G3" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="P3" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="64"/>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B4" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="O4" s="41"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="44" t="s">
-        <v>70</v>
       </c>
       <c r="T4" s="44"/>
       <c r="U4" s="44"/>
       <c r="V4" s="44"/>
       <c r="W4" s="44"/>
-      <c r="X4" s="61"/>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="21">
+      <c r="X4" s="35"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="60">
         <v>7171000000</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="G5" s="19">
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="G5" s="14">
         <v>1</v>
       </c>
-      <c r="H5" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="19">
+      <c r="H5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="14">
         <v>7171000000</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="15">
         <v>22</v>
       </c>
-      <c r="K5" s="19" t="str">
+      <c r="K5" s="14" t="str">
         <f>C13</f>
         <v>Head of Accounting Departement</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L5" s="19">
         <f>C25</f>
         <v>5000000</v>
       </c>
-      <c r="M5" s="38">
+      <c r="M5" s="21">
         <v>50000</v>
       </c>
-      <c r="N5" s="38">
+      <c r="N5" s="21">
         <v>250000</v>
       </c>
-      <c r="O5" s="38">
+      <c r="O5" s="21">
         <v>10000</v>
       </c>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="45"/>
+      <c r="P5" s="14"/>
+      <c r="R5" s="23"/>
       <c r="S5" s="44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T5" s="44"/>
       <c r="U5" s="44"/>
       <c r="V5" s="44"/>
       <c r="W5" s="44"/>
-      <c r="X5" s="61"/>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B6" s="19" t="s">
+      <c r="X5" s="35"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="14"/>
+      <c r="R6" s="23"/>
+      <c r="X6" s="24"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="47"/>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B7" s="19" t="s">
+      <c r="C7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="D7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="E7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="57" t="s">
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="14"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="T7" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="U7" s="46" t="str">
+      <c r="T7" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="U7" s="13" t="str">
         <f>H5</f>
         <v>Rafael Julio Kembuan</v>
       </c>
-      <c r="V7" s="46"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="47"/>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B8" s="19" t="s">
+      <c r="X7" s="24"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="26"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="T8" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="U8" s="49">
+      <c r="D8" s="50"/>
+      <c r="E8" s="52"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="14"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="U8" s="25">
         <f>I5</f>
         <v>7171000000</v>
       </c>
-      <c r="V8" s="46"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="47"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B9" s="19" t="s">
+      <c r="X8" s="24"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="57" t="s">
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="14"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="T9" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="U9" s="46" t="str">
+      <c r="T9" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="U9" s="13" t="str">
         <f>K5</f>
         <v>Head of Accounting Departement</v>
       </c>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="47"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B10" s="19" t="s">
+      <c r="X9" s="24"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="U10" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="X10" s="24"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="52"/>
+      <c r="R11" s="23"/>
+      <c r="T11" s="17"/>
+      <c r="X11" s="24"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B12" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="T10" s="48" t="s">
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="U10" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="V10" s="46"/>
-      <c r="W10" s="46"/>
-      <c r="X10" s="47"/>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="46"/>
-      <c r="X11" s="47"/>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B12" s="18" t="s">
+      <c r="T12" s="17"/>
+      <c r="X12" s="24"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="57" t="s">
+      <c r="C13" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="T12" s="50"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="47"/>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B13" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="T13" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="U13" s="43"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="43">
+      <c r="T13" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="U13" s="22"/>
+      <c r="W13" s="22">
         <f>C25</f>
         <v>5000000</v>
       </c>
-      <c r="X13" s="47"/>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B14" s="19" t="s">
+      <c r="X13" s="24"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="R14" s="23"/>
+      <c r="T14" s="17"/>
+      <c r="X14" s="24"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="47"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B15" s="19" t="s">
+      <c r="C15" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="X15" s="24"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="T15" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="47"/>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B16" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="E16" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="R16" s="45"/>
-      <c r="S16" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="T16" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="U16" s="43">
+      <c r="R16" s="23"/>
+      <c r="S16" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="T16" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="U16" s="22">
         <f>O5</f>
         <v>10000</v>
       </c>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="47"/>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B17" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="20">
+      <c r="X16" s="24"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="57">
         <v>123456789</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="T17" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="U17" s="43">
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="T17" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="U17" s="22">
         <f>M5</f>
         <v>50000</v>
       </c>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="47"/>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="T18" s="50" t="s">
+      <c r="X17" s="24"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="U18" s="43">
+      <c r="T18" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="U18" s="22">
         <f>N5</f>
         <v>250000</v>
       </c>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="47"/>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B19" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="T19" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="U19" s="46"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="43">
+      <c r="X18" s="24"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B19" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="T19" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="W19" s="22">
         <f>SUM(U16:U18)</f>
         <v>310000</v>
       </c>
-      <c r="X19" s="47"/>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B20" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="21">
+      <c r="X19" s="24"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="60">
         <f>C5</f>
         <v>7171000000</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="49"/>
-      <c r="V20" s="49"/>
-      <c r="W20" s="49"/>
-      <c r="X20" s="51"/>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B21" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="59">
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="26"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="33">
         <f>W13-W19</f>
         <v>4690000</v>
       </c>
-      <c r="X21" s="62"/>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B22" s="19" t="s">
+      <c r="X21" s="36"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="57">
+        <v>12345678</v>
+      </c>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="25"/>
+      <c r="X22" s="24"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="17"/>
+      <c r="V23" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="W23" s="43"/>
+      <c r="X23" s="24"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B24" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="20">
-        <v>12345678</v>
-      </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="47"/>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="52" t="s">
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="R24" s="23"/>
+      <c r="V24" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="W24" s="43"/>
+      <c r="X24" s="24"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="54">
+        <v>5000000</v>
+      </c>
+      <c r="D25" s="55"/>
+      <c r="E25" s="56"/>
+      <c r="R25" s="23"/>
+      <c r="X25" s="24"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B26" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="57">
+        <v>22112345</v>
+      </c>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="R26" s="23"/>
+      <c r="X26" s="24"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="R27" s="23"/>
+      <c r="V27" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="W23" s="52"/>
-      <c r="X23" s="47"/>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B24" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="W24" s="52"/>
-      <c r="X24" s="47"/>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B25" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="27">
-        <v>5000000</v>
-      </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="47"/>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B26" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="20">
-        <v>22112345</v>
-      </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="47"/>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="R27" s="45"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="46"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="W27" s="52"/>
-      <c r="X27" s="47"/>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="R28" s="53"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="54"/>
-      <c r="U28" s="54"/>
-      <c r="V28" s="54"/>
-      <c r="W28" s="54"/>
-      <c r="X28" s="55"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="24"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="R28" s="27"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="S4:W4"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G1:P1"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G1:P1"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B19:E19"/>
@@ -2043,13 +1958,16 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="S4:W4"/>
+    <mergeCell ref="S5:W5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
